--- a/README/Endpoints.xlsx
+++ b/README/Endpoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard ST\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard ST\IdeaProjects\TKK\README\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42677F26-69DA-4109-8148-E975C33D9CA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A7E23-A12D-4ADB-A6C4-9856069A02A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3154E4D2-62C0-43B6-A3F3-59E08BEE8E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>User Endpoints</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>/transactions/{transactionID}</t>
-  </si>
-  <si>
-    <t>/cards{userID}</t>
   </si>
   <si>
     <t>Update Card</t>
@@ -214,6 +211,8 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,8 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +539,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,11 +550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -604,11 +601,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -622,14 +619,14 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,18 +645,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -706,10 +703,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
